--- a/Java Course Outline.xlsx
+++ b/Java Course Outline.xlsx
@@ -1,13 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26221"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25823"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="-1620" yWindow="0" windowWidth="25600" windowHeight="14560" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16060" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
+    <sheet name="Abstract Class versus Interface" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
     <definedName name="topic2" localSheetId="0">工作表1!$B$2</definedName>
@@ -28,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="98">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="114">
   <si>
     <t>#</t>
   </si>
@@ -343,16 +344,64 @@
   <si>
     <t>Spring MVC</t>
   </si>
+  <si>
+    <t>abstract Classes</t>
+  </si>
+  <si>
+    <t>Interfaces</t>
+  </si>
+  <si>
+    <t> abstract class can extend only one class or one abstract class at a time</t>
+  </si>
+  <si>
+    <t> interface can extend any number of interfaces at a time</t>
+  </si>
+  <si>
+    <t> abstract  class  can extend from a class or from an abstract class</t>
+  </si>
+  <si>
+    <t> interface can extend only from an interface</t>
+  </si>
+  <si>
+    <t> abstract  class  can  have  both  abstract and concrete methods</t>
+  </si>
+  <si>
+    <t> interface can  have only abstract methods</t>
+  </si>
+  <si>
+    <t> A class can extend only one abstract class</t>
+  </si>
+  <si>
+    <t> A class can implement any number of interfaces</t>
+  </si>
+  <si>
+    <t> In abstract class keyword ‘abstract’ is mandatory to declare a method as an abstract</t>
+  </si>
+  <si>
+    <t> In an interface keyword ‘abstract’ is optional to declare a method as an abstract</t>
+  </si>
+  <si>
+    <t> abstract  class can have  protected , public and public abstract methods</t>
+  </si>
+  <si>
+    <t> Interface can have only public abstract methods i.e. by default</t>
+  </si>
+  <si>
+    <t> abstract class can have  static, final  or static final  variable with any access specifier</t>
+  </si>
+  <si>
+    <t> interface  can  have only static final (constant) variable i.e. by default</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -382,7 +431,7 @@
     </font>
     <font>
       <sz val="9"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -391,7 +440,7 @@
       <u/>
       <sz val="12"/>
       <color theme="11"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -400,9 +449,17 @@
       <u/>
       <sz val="12"/>
       <color theme="10"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -414,7 +471,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -422,8 +479,34 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="18">
+  <cellStyleXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -442,34 +525,105 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="18">
-    <cellStyle name="普通" xfId="0" builtinId="0"/>
-    <cellStyle name="访问过的超链接" xfId="1" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="2" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="3" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="5" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="7" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="9" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="11" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="13" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="15" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="17" builtinId="9" hidden="1"/>
-    <cellStyle name="超链接" xfId="4" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="6" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="8" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="12" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="14" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="16" builtinId="8" hidden="1"/>
+  <cellStyles count="50">
+    <cellStyle name="Followed Hyperlink" xfId="1" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="3" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="5" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="7" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="9" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="11" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="13" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="15" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="17" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="19" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="21" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="23" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="25" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="27" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="29" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="31" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="33" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="35" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="37" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="39" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="41" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="43" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="45" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="47" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="49" builtinId="9" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="4" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="6" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="8" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="10" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="12" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="14" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="16" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="18" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="20" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="22" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="24" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="26" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="28" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="30" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="32" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="34" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="36" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="38" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="40" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="42" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="44" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="46" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="48" builtinId="8" hidden="1"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
@@ -800,8 +954,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C82"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A70" zoomScale="145" zoomScaleNormal="145" zoomScalePageLayoutView="145" workbookViewId="0">
-      <selection activeCell="C75" sqref="C75"/>
+    <sheetView topLeftCell="A25" zoomScale="145" zoomScaleNormal="145" zoomScalePageLayoutView="145" workbookViewId="0">
+      <selection activeCell="C34" sqref="C34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -1384,7 +1538,97 @@
   </mergeCells>
   <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="0" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C8"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:A1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="1" max="1" width="37.33203125" customWidth="1"/>
+    <col min="2" max="2" width="47" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="C1" s="8"/>
+    </row>
+    <row r="2" spans="1:3" ht="30">
+      <c r="A2" s="6" t="s">
+        <v>100</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="30">
+      <c r="A3" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="30">
+      <c r="A4" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" s="6" t="s">
+        <v>106</v>
+      </c>
+      <c r="B5" s="6" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="45">
+      <c r="A6" s="6" t="s">
+        <v>108</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="30">
+      <c r="A7" s="6" t="s">
+        <v>110</v>
+      </c>
+      <c r="B7" s="6" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="30">
+      <c r="A8" s="6" t="s">
+        <v>112</v>
+      </c>
+      <c r="B8" s="6" t="s">
+        <v>113</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>

--- a/Java Course Outline.xlsx
+++ b/Java Course Outline.xlsx
@@ -1,26 +1,34 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25823"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="28209"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ccao/java-workshop/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16060" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="15860" tabRatio="500"/>
   </bookViews>
   <sheets>
-    <sheet name="工作表1" sheetId="1" r:id="rId1"/>
+    <sheet name="outline" sheetId="1" r:id="rId1"/>
     <sheet name="Abstract Class versus Interface" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="topic2" localSheetId="0">工作表1!$B$2</definedName>
-    <definedName name="topic3" localSheetId="0">工作表1!$B$12</definedName>
-    <definedName name="topic4" localSheetId="0">工作表1!$B$27</definedName>
-    <definedName name="topic5" localSheetId="0">工作表1!$B$34</definedName>
-    <definedName name="topic6" localSheetId="0">工作表1!$B$40</definedName>
-    <definedName name="topic7" localSheetId="0">工作表1!$B$50</definedName>
-    <definedName name="topic8" localSheetId="0">工作表1!$B$64</definedName>
+    <definedName name="topic2" localSheetId="0">outline!$B$2</definedName>
+    <definedName name="topic3" localSheetId="0">outline!$B$12</definedName>
+    <definedName name="topic4" localSheetId="0">outline!$B$27</definedName>
+    <definedName name="topic5" localSheetId="0">outline!$B$34</definedName>
+    <definedName name="topic6" localSheetId="0">outline!$B$40</definedName>
+    <definedName name="topic7" localSheetId="0">outline!$B$50</definedName>
+    <definedName name="topic8" localSheetId="0">outline!$B$64</definedName>
   </definedNames>
   <calcPr calcId="140000" concurrentCalc="0"/>
   <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
+      <x14:workbookPr defaultImageDpi="32767"/>
+    </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
     </ext>
@@ -403,7 +411,6 @@
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -564,7 +571,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -572,6 +578,7 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="50">
     <cellStyle name="Followed Hyperlink" xfId="1" builtinId="9" hidden="1"/>
@@ -627,6 +634,11 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -954,17 +966,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C82"/>
   <sheetViews>
-    <sheetView topLeftCell="A25" zoomScale="145" zoomScaleNormal="145" zoomScalePageLayoutView="145" workbookViewId="0">
-      <selection activeCell="C34" sqref="C34"/>
+    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" zoomScalePageLayoutView="145" workbookViewId="0">
+      <selection activeCell="B59" sqref="B59"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="2" width="64" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="51.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="16">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -975,8 +987,8 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
-      <c r="A2" s="5">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2" s="8">
         <v>1</v>
       </c>
       <c r="B2" s="3" t="s">
@@ -986,8 +998,8 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
-      <c r="A3" s="5"/>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3" s="8"/>
       <c r="B3" s="4" t="s">
         <v>4</v>
       </c>
@@ -995,56 +1007,56 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
-      <c r="A4" s="5"/>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A4" s="8"/>
       <c r="C4" s="2" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
-      <c r="A5" s="5"/>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A5" s="8"/>
       <c r="C5" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:3">
-      <c r="A6" s="5"/>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A6" s="8"/>
       <c r="C6" s="2" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:3">
-      <c r="A7" s="5"/>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A7" s="8"/>
       <c r="C7" s="2" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="1:3">
-      <c r="A8" s="5"/>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A8" s="8"/>
       <c r="C8" s="2" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="9" spans="1:3">
-      <c r="A9" s="5"/>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A9" s="8"/>
       <c r="C9" s="2" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="10" spans="1:3">
-      <c r="A10" s="5"/>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A10" s="8"/>
       <c r="C10" s="2" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="11" spans="1:3">
-      <c r="A11" s="5"/>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A11" s="8"/>
       <c r="C11" s="2" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="12" spans="1:3">
-      <c r="A12" s="5">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A12" s="8">
         <v>2</v>
       </c>
       <c r="B12" s="3" t="s">
@@ -1054,8 +1066,8 @@
         <v>17</v>
       </c>
     </row>
-    <row r="13" spans="1:3">
-      <c r="A13" s="5"/>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A13" s="8"/>
       <c r="B13" s="4" t="s">
         <v>16</v>
       </c>
@@ -1063,86 +1075,86 @@
         <v>18</v>
       </c>
     </row>
-    <row r="14" spans="1:3">
-      <c r="A14" s="5"/>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A14" s="8"/>
       <c r="C14" s="2" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="15" spans="1:3">
-      <c r="A15" s="5"/>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A15" s="8"/>
       <c r="C15" s="2" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="16" spans="1:3">
-      <c r="A16" s="5"/>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A16" s="8"/>
       <c r="C16" s="2" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="17" spans="1:3">
-      <c r="A17" s="5"/>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A17" s="8"/>
       <c r="C17" s="2" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="18" spans="1:3">
-      <c r="A18" s="5"/>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A18" s="8"/>
       <c r="C18" s="2" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="19" spans="1:3">
-      <c r="A19" s="5"/>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A19" s="8"/>
       <c r="C19" s="2" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="20" spans="1:3">
-      <c r="A20" s="5"/>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A20" s="8"/>
       <c r="C20" s="2" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="21" spans="1:3">
-      <c r="A21" s="5"/>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A21" s="8"/>
       <c r="C21" s="2" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="22" spans="1:3">
-      <c r="A22" s="5"/>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A22" s="8"/>
       <c r="C22" s="2" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="23" spans="1:3">
-      <c r="A23" s="5"/>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A23" s="8"/>
       <c r="C23" s="2" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="24" spans="1:3">
-      <c r="A24" s="5"/>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A24" s="8"/>
       <c r="C24" s="2" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="25" spans="1:3">
-      <c r="A25" s="5"/>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A25" s="8"/>
       <c r="C25" s="2" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="26" spans="1:3">
-      <c r="A26" s="5"/>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A26" s="8"/>
       <c r="C26" s="2" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="27" spans="1:3">
-      <c r="A27" s="5">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A27" s="8">
         <v>3</v>
       </c>
       <c r="B27" s="3" t="s">
@@ -1152,8 +1164,8 @@
         <v>33</v>
       </c>
     </row>
-    <row r="28" spans="1:3">
-      <c r="A28" s="5"/>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A28" s="8"/>
       <c r="B28" s="4" t="s">
         <v>32</v>
       </c>
@@ -1161,38 +1173,38 @@
         <v>34</v>
       </c>
     </row>
-    <row r="29" spans="1:3">
-      <c r="A29" s="5"/>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A29" s="8"/>
       <c r="C29" s="2" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="30" spans="1:3">
-      <c r="A30" s="5"/>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A30" s="8"/>
       <c r="C30" s="2" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="31" spans="1:3">
-      <c r="A31" s="5"/>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A31" s="8"/>
       <c r="C31" s="2" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="32" spans="1:3">
-      <c r="A32" s="5"/>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A32" s="8"/>
       <c r="C32" s="2" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="33" spans="1:3">
-      <c r="A33" s="5"/>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A33" s="8"/>
       <c r="C33" s="2" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="34" spans="1:3">
-      <c r="A34" s="5">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A34" s="8">
         <v>4</v>
       </c>
       <c r="B34" s="3" t="s">
@@ -1202,8 +1214,8 @@
         <v>41</v>
       </c>
     </row>
-    <row r="35" spans="1:3">
-      <c r="A35" s="5"/>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A35" s="8"/>
       <c r="B35" s="4" t="s">
         <v>40</v>
       </c>
@@ -1211,32 +1223,32 @@
         <v>42</v>
       </c>
     </row>
-    <row r="36" spans="1:3">
-      <c r="A36" s="5"/>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A36" s="8"/>
       <c r="C36" s="2" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="37" spans="1:3">
-      <c r="A37" s="5"/>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A37" s="8"/>
       <c r="C37" s="2" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="38" spans="1:3">
-      <c r="A38" s="5"/>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A38" s="8"/>
       <c r="C38" s="2" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="39" spans="1:3">
-      <c r="A39" s="5"/>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A39" s="8"/>
       <c r="C39" s="2" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="40" spans="1:3">
-      <c r="A40" s="5">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A40" s="8">
         <v>5</v>
       </c>
       <c r="B40" s="3" t="s">
@@ -1246,8 +1258,8 @@
         <v>48</v>
       </c>
     </row>
-    <row r="41" spans="1:3">
-      <c r="A41" s="5"/>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A41" s="8"/>
       <c r="B41" s="4" t="s">
         <v>47</v>
       </c>
@@ -1255,56 +1267,56 @@
         <v>49</v>
       </c>
     </row>
-    <row r="42" spans="1:3">
-      <c r="A42" s="5"/>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A42" s="8"/>
       <c r="C42" s="2" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="43" spans="1:3">
-      <c r="A43" s="5"/>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A43" s="8"/>
       <c r="C43" s="2" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="44" spans="1:3">
-      <c r="A44" s="5"/>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A44" s="8"/>
       <c r="C44" s="2" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="45" spans="1:3">
-      <c r="A45" s="5"/>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A45" s="8"/>
       <c r="C45" s="2" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="46" spans="1:3">
-      <c r="A46" s="5"/>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A46" s="8"/>
       <c r="C46" s="2" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="47" spans="1:3">
-      <c r="A47" s="5"/>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A47" s="8"/>
       <c r="C47" s="2" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="48" spans="1:3">
-      <c r="A48" s="5"/>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A48" s="8"/>
       <c r="C48" s="2" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="49" spans="1:3">
-      <c r="A49" s="5"/>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A49" s="8"/>
       <c r="C49" s="2" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="50" spans="1:3">
-      <c r="A50" s="5">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A50" s="8">
         <v>6</v>
       </c>
       <c r="B50" s="3" t="s">
@@ -1314,8 +1326,8 @@
         <v>59</v>
       </c>
     </row>
-    <row r="51" spans="1:3">
-      <c r="A51" s="5"/>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A51" s="8"/>
       <c r="B51" s="4" t="s">
         <v>58</v>
       </c>
@@ -1323,80 +1335,80 @@
         <v>60</v>
       </c>
     </row>
-    <row r="52" spans="1:3">
-      <c r="A52" s="5"/>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A52" s="8"/>
       <c r="C52" s="2" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="53" spans="1:3">
-      <c r="A53" s="5"/>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A53" s="8"/>
       <c r="C53" s="2" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="54" spans="1:3">
-      <c r="A54" s="5"/>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A54" s="8"/>
       <c r="C54" s="2" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="55" spans="1:3">
-      <c r="A55" s="5"/>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A55" s="8"/>
       <c r="C55" s="2" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="56" spans="1:3">
-      <c r="A56" s="5"/>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A56" s="8"/>
       <c r="C56" s="2" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="57" spans="1:3">
-      <c r="A57" s="5"/>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A57" s="8"/>
       <c r="C57" s="2" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="58" spans="1:3">
-      <c r="A58" s="5"/>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A58" s="8"/>
       <c r="C58" s="2" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="59" spans="1:3">
-      <c r="A59" s="5"/>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A59" s="8"/>
       <c r="C59" s="2" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="60" spans="1:3">
-      <c r="A60" s="5"/>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A60" s="8"/>
       <c r="C60" s="2" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="61" spans="1:3">
-      <c r="A61" s="5"/>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A61" s="8"/>
       <c r="C61" s="2" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="62" spans="1:3">
-      <c r="A62" s="5"/>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A62" s="8"/>
       <c r="C62" s="2" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="63" spans="1:3">
-      <c r="A63" s="5"/>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A63" s="8"/>
       <c r="C63" s="2" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="64" spans="1:3">
-      <c r="A64" s="5"/>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A64" s="8"/>
       <c r="B64" s="3" t="s">
         <v>72</v>
       </c>
@@ -1404,8 +1416,8 @@
         <v>88</v>
       </c>
     </row>
-    <row r="65" spans="1:3">
-      <c r="A65" s="5"/>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A65" s="8"/>
       <c r="B65" s="4" t="s">
         <v>73</v>
       </c>
@@ -1413,13 +1425,13 @@
         <v>89</v>
       </c>
     </row>
-    <row r="66" spans="1:3">
-      <c r="A66" s="5"/>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A66" s="8"/>
       <c r="C66" s="2" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="67" spans="1:3">
+    <row r="67" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A67">
         <v>7</v>
       </c>
@@ -1430,7 +1442,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="68" spans="1:3">
+    <row r="68" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B68" s="4" t="s">
         <v>75</v>
       </c>
@@ -1438,32 +1450,32 @@
         <v>76</v>
       </c>
     </row>
-    <row r="69" spans="1:3">
+    <row r="69" spans="1:3" x14ac:dyDescent="0.2">
       <c r="C69" s="2" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="70" spans="1:3">
+    <row r="70" spans="1:3" x14ac:dyDescent="0.2">
       <c r="C70" s="2" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="71" spans="1:3">
+    <row r="71" spans="1:3" x14ac:dyDescent="0.2">
       <c r="C71" s="2" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="72" spans="1:3">
+    <row r="72" spans="1:3" x14ac:dyDescent="0.2">
       <c r="C72" s="2" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="73" spans="1:3">
+    <row r="73" spans="1:3" x14ac:dyDescent="0.2">
       <c r="C73" s="2" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="74" spans="1:3">
+    <row r="74" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A74">
         <v>8</v>
       </c>
@@ -1474,7 +1486,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="75" spans="1:3">
+    <row r="75" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B75" s="4" t="s">
         <v>83</v>
       </c>
@@ -1482,17 +1494,17 @@
         <v>85</v>
       </c>
     </row>
-    <row r="76" spans="1:3">
+    <row r="76" spans="1:3" x14ac:dyDescent="0.2">
       <c r="C76" s="2" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="77" spans="1:3">
+    <row r="77" spans="1:3" x14ac:dyDescent="0.2">
       <c r="C77" s="2" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="78" spans="1:3">
+    <row r="78" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A78">
         <v>9</v>
       </c>
@@ -1503,7 +1515,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="79" spans="1:3">
+    <row r="79" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B79" s="4" t="s">
         <v>92</v>
       </c>
@@ -1511,17 +1523,17 @@
         <v>94</v>
       </c>
     </row>
-    <row r="80" spans="1:3">
+    <row r="80" spans="1:3" x14ac:dyDescent="0.2">
       <c r="C80" s="2" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="81" spans="3:3">
+    <row r="81" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C81" s="2" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="82" spans="3:3">
+    <row r="82" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C82" s="2" t="s">
         <v>97</v>
       </c>
@@ -1539,11 +1551,6 @@
   <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
 
@@ -1551,88 +1558,83 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:A1048576"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="37.33203125" customWidth="1"/>
     <col min="2" max="2" width="47" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
-      <c r="A1" s="7" t="s">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1" s="6" t="s">
         <v>98</v>
       </c>
-      <c r="B1" s="7" t="s">
+      <c r="B1" s="6" t="s">
         <v>99</v>
       </c>
-      <c r="C1" s="8"/>
-    </row>
-    <row r="2" spans="1:3" ht="30">
-      <c r="A2" s="6" t="s">
+      <c r="C1" s="7"/>
+    </row>
+    <row r="2" spans="1:3" ht="32" x14ac:dyDescent="0.2">
+      <c r="A2" s="5" t="s">
         <v>100</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="B2" s="5" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="30">
-      <c r="A3" s="6" t="s">
+    <row r="3" spans="1:3" ht="32" x14ac:dyDescent="0.2">
+      <c r="A3" s="5" t="s">
         <v>102</v>
       </c>
-      <c r="B3" s="6" t="s">
+      <c r="B3" s="5" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="30">
-      <c r="A4" s="6" t="s">
+    <row r="4" spans="1:3" ht="32" x14ac:dyDescent="0.2">
+      <c r="A4" s="5" t="s">
         <v>104</v>
       </c>
-      <c r="B4" s="6" t="s">
+      <c r="B4" s="5" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
-      <c r="A5" s="6" t="s">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A5" s="5" t="s">
         <v>106</v>
       </c>
-      <c r="B5" s="6" t="s">
+      <c r="B5" s="5" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="45">
-      <c r="A6" s="6" t="s">
+    <row r="6" spans="1:3" ht="48" x14ac:dyDescent="0.2">
+      <c r="A6" s="5" t="s">
         <v>108</v>
       </c>
-      <c r="B6" s="6" t="s">
+      <c r="B6" s="5" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="30">
-      <c r="A7" s="6" t="s">
+    <row r="7" spans="1:3" ht="32" x14ac:dyDescent="0.2">
+      <c r="A7" s="5" t="s">
         <v>110</v>
       </c>
-      <c r="B7" s="6" t="s">
+      <c r="B7" s="5" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="30">
-      <c r="A8" s="6" t="s">
+    <row r="8" spans="1:3" ht="32" x14ac:dyDescent="0.2">
+      <c r="A8" s="5" t="s">
         <v>112</v>
       </c>
-      <c r="B8" s="6" t="s">
+      <c r="B8" s="5" t="s">
         <v>113</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
--- a/Java Course Outline.xlsx
+++ b/Java Course Outline.xlsx
@@ -22,7 +22,7 @@
     <definedName name="topic5" localSheetId="0">outline!$B$34</definedName>
     <definedName name="topic6" localSheetId="0">outline!$B$40</definedName>
     <definedName name="topic7" localSheetId="0">outline!$B$50</definedName>
-    <definedName name="topic8" localSheetId="0">outline!$B$64</definedName>
+    <definedName name="topic8" localSheetId="0">outline!#REF!</definedName>
   </definedNames>
   <calcPr calcId="140000" concurrentCalc="0"/>
   <extLst>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="114">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="88">
   <si>
     <t>#</t>
   </si>
@@ -85,9 +85,6 @@
   </si>
   <si>
     <t>Classes and Objects in Java</t>
-  </si>
-  <si>
-    <t>Master the fundamental elements of OOP and related Java features</t>
   </si>
   <si>
     <t>Classes &amp; Objects</t>
@@ -274,85 +271,6 @@
     <t>java.util.Iterator</t>
   </si>
   <si>
-    <t>Java EE Introduction</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>Introduction and Overview of OO Domain Implementation and Database Integration Strategies in Java</t>
-  </si>
-  <si>
-    <t>JDBC</t>
-  </si>
-  <si>
-    <t>Building an OO persistence Framework with JDBC</t>
-  </si>
-  <si>
-    <t>Database Architectures</t>
-  </si>
-  <si>
-    <t>Installing MySQL</t>
-  </si>
-  <si>
-    <t>Exploring JDBC</t>
-  </si>
-  <si>
-    <t>Encapsulating the Database Connection</t>
-  </si>
-  <si>
-    <t>An Object Manager</t>
-  </si>
-  <si>
-    <t>Appendix</t>
-  </si>
-  <si>
-    <t>Domain Service Layer Patterns</t>
-  </si>
-  <si>
-    <t>Enterprise Patterns for the Domain Service Layer</t>
-  </si>
-  <si>
-    <t>Transfer Object</t>
-  </si>
-  <si>
-    <t>Data Access Object</t>
-  </si>
-  <si>
-    <t>Session Façade</t>
-  </si>
-  <si>
-    <t>Business Delegate</t>
-  </si>
-  <si>
-    <t>Introduction</t>
-  </si>
-  <si>
-    <t>Domain Persistence Strategies</t>
-  </si>
-  <si>
-    <t>Domain Integration Strategies</t>
-  </si>
-  <si>
-    <t>Spring Framework Introduction</t>
-  </si>
-  <si>
-    <t>General Introduction to the J2EE development with the Spring Framework</t>
-  </si>
-  <si>
-    <t>About Spring</t>
-  </si>
-  <si>
-    <t>Spring Core</t>
-  </si>
-  <si>
-    <t>Spring Templates</t>
-  </si>
-  <si>
-    <t>Spring AOP</t>
-  </si>
-  <si>
-    <t>Spring MVC</t>
-  </si>
-  <si>
     <t>abstract Classes</t>
   </si>
   <si>
@@ -399,6 +317,9 @@
   </si>
   <si>
     <t> interface  can  have only static final (constant) variable i.e. by default</t>
+  </si>
+  <si>
+    <t>Master the fundamental elements of OOP and related features</t>
   </si>
 </sst>
 </file>
@@ -513,10 +434,18 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="50">
+  <cellStyleXfs count="58">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -580,7 +509,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="50">
+  <cellStyles count="58">
     <cellStyle name="Followed Hyperlink" xfId="1" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="3" builtinId="9" hidden="1"/>
@@ -607,6 +536,10 @@
     <cellStyle name="Followed Hyperlink" xfId="45" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="47" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="49" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="51" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="53" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="55" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="57" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="4" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="6" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="8" builtinId="8" hidden="1"/>
@@ -630,6 +563,10 @@
     <cellStyle name="Hyperlink" xfId="44" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="46" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="48" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="50" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="52" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="54" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="56" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -964,15 +901,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C82"/>
+  <dimension ref="A1:C63"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" zoomScalePageLayoutView="145" workbookViewId="0">
-      <selection activeCell="B59" sqref="B59"/>
+    <sheetView tabSelected="1" topLeftCell="A37" zoomScale="145" zoomScaleNormal="145" zoomScalePageLayoutView="145" workbookViewId="0">
+      <selection activeCell="D51" sqref="D51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="64" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="60.33203125" customWidth="1"/>
     <col min="3" max="3" width="51.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1063,88 +1000,88 @@
         <v>15</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A13" s="8"/>
       <c r="B13" s="4" t="s">
-        <v>16</v>
+        <v>87</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A14" s="8"/>
       <c r="C14" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A15" s="8"/>
       <c r="C15" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A16" s="8"/>
       <c r="C16" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A17" s="8"/>
       <c r="C17" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A18" s="8"/>
       <c r="C18" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A19" s="8"/>
       <c r="C19" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A20" s="8"/>
       <c r="C20" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A21" s="8"/>
       <c r="C21" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A22" s="8"/>
       <c r="C22" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A23" s="8"/>
       <c r="C23" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A24" s="8"/>
       <c r="C24" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A25" s="8"/>
       <c r="C25" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.2">
@@ -1158,43 +1095,43 @@
         <v>3</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A28" s="8"/>
       <c r="B28" s="4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A29" s="8"/>
       <c r="C29" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A30" s="8"/>
       <c r="C30" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A31" s="8"/>
       <c r="C31" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A32" s="8"/>
       <c r="C32" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.2">
@@ -1208,37 +1145,37 @@
         <v>4</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A35" s="8"/>
       <c r="B35" s="4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A36" s="8"/>
       <c r="C36" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A37" s="8"/>
       <c r="C37" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A38" s="8"/>
       <c r="C38" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.2">
@@ -1252,61 +1189,61 @@
         <v>5</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A41" s="8"/>
       <c r="B41" s="4" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A42" s="8"/>
       <c r="C42" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A43" s="8"/>
       <c r="C43" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A44" s="8"/>
       <c r="C44" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A45" s="8"/>
       <c r="C45" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A46" s="8"/>
       <c r="C46" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A47" s="8"/>
       <c r="C47" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A48" s="8"/>
       <c r="C48" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.2">
@@ -1320,85 +1257,85 @@
         <v>6</v>
       </c>
       <c r="B50" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A51" s="8"/>
       <c r="B51" s="4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A52" s="8"/>
       <c r="C52" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A53" s="8"/>
       <c r="C53" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A54" s="8"/>
       <c r="C54" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A55" s="8"/>
       <c r="C55" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A56" s="8"/>
       <c r="C56" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A57" s="8"/>
       <c r="C57" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A58" s="8"/>
       <c r="C58" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A59" s="8"/>
       <c r="C59" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A60" s="8"/>
       <c r="C60" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A61" s="8"/>
       <c r="C61" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A62" s="8"/>
       <c r="C62" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.2">
@@ -1407,140 +1344,8 @@
         <v>14</v>
       </c>
     </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A64" s="8"/>
-      <c r="B64" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="C64" s="2" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A65" s="8"/>
-      <c r="B65" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="C65" s="2" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A66" s="8"/>
-      <c r="C66" s="2" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A67">
-        <v>7</v>
-      </c>
-      <c r="B67" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="C67" s="2" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B68" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="C68" s="2" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="C69" s="2" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="C70" s="2" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="C71" s="2" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="C72" s="2" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="C73" s="2" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A74">
-        <v>8</v>
-      </c>
-      <c r="B74" s="3" t="s">
-        <v>82</v>
-      </c>
-      <c r="C74" s="2" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B75" s="4" t="s">
-        <v>83</v>
-      </c>
-      <c r="C75" s="2" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="C76" s="2" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="C77" s="2" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A78">
-        <v>9</v>
-      </c>
-      <c r="B78" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="C78" s="2" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B79" s="4" t="s">
-        <v>92</v>
-      </c>
-      <c r="C79" s="2" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="C80" s="2" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="81" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C81" s="2" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="82" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C82" s="2" t="s">
-        <v>97</v>
-      </c>
-    </row>
   </sheetData>
-  <mergeCells count="7">
-    <mergeCell ref="A64:A66"/>
+  <mergeCells count="6">
     <mergeCell ref="A2:A11"/>
     <mergeCell ref="A12:A26"/>
     <mergeCell ref="A27:A33"/>
@@ -1570,67 +1375,67 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" s="6" t="s">
-        <v>98</v>
+        <v>71</v>
       </c>
       <c r="B1" s="6" t="s">
-        <v>99</v>
+        <v>72</v>
       </c>
       <c r="C1" s="7"/>
     </row>
     <row r="2" spans="1:3" ht="32" x14ac:dyDescent="0.2">
       <c r="A2" s="5" t="s">
-        <v>100</v>
+        <v>73</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>101</v>
+        <v>74</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="32" x14ac:dyDescent="0.2">
       <c r="A3" s="5" t="s">
-        <v>102</v>
+        <v>75</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>103</v>
+        <v>76</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="32" x14ac:dyDescent="0.2">
       <c r="A4" s="5" t="s">
-        <v>104</v>
+        <v>77</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>105</v>
+        <v>78</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" s="5" t="s">
-        <v>106</v>
+        <v>79</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>107</v>
+        <v>80</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="48" x14ac:dyDescent="0.2">
       <c r="A6" s="5" t="s">
-        <v>108</v>
+        <v>81</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>109</v>
+        <v>82</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="32" x14ac:dyDescent="0.2">
       <c r="A7" s="5" t="s">
-        <v>110</v>
+        <v>83</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>111</v>
+        <v>84</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="32" x14ac:dyDescent="0.2">
       <c r="A8" s="5" t="s">
-        <v>112</v>
+        <v>85</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>113</v>
+        <v>86</v>
       </c>
     </row>
   </sheetData>
